--- a/UI-UX/danh-sach-các-component.xlsx
+++ b/UI-UX/danh-sach-các-component.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myTL\UI-UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tailieu\UI-UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF74F3D-6CC3-49B4-83AF-4474DAFFE5EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4035" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="3" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Loại</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Input không nằm trong form, dùng để filter, search</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Button trong table</t>
   </si>
   <si>
@@ -128,11 +126,26 @@
   <si>
     <t>Cột xếp dọc</t>
   </si>
+  <si>
+    <t>Text nhập dữ liệu dài</t>
+  </si>
+  <si>
+    <t>Upload file</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Search, check</t>
+  </si>
+  <si>
+    <t>Text dài</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,7 +465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -483,17 +496,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,17 +543,27 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,42 +578,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -619,37 +647,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -670,7 +698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -682,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,32 +729,37 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +769,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -755,22 +788,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
